--- a/Keycaps_Wishlist.xlsx
+++ b/Keycaps_Wishlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>PBT Dye-subbed Spacebar 6.25U</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>CMYW Blank 24</t>
+  </si>
+  <si>
+    <t>Shiping</t>
+  </si>
+  <si>
+    <t>Sum 1-5</t>
   </si>
 </sst>
 </file>
@@ -67,8 +73,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="[$$-409]#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="[$VND]\ #,##0"/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$VND]\ #,##0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -101,8 +107,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G16"/>
+  <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,7 +404,7 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F2" s="1">
         <v>1</v>
       </c>
@@ -406,7 +412,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -420,7 +426,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -435,7 +444,7 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2</v>
       </c>
@@ -443,13 +452,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ref="E6:E13" si="0">D6*$G$2</f>
+        <f t="shared" ref="E6:E10" si="0">D6*$G$2</f>
         <v>144000</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -459,9 +468,9 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
@@ -471,9 +480,9 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1">
         <v>6</v>
@@ -483,9 +492,9 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1">
         <v>6</v>
@@ -495,88 +504,100 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
       <c r="C11">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>6</v>
+        <v>19.8</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>16</v>
+        <f>D11*$G$2</f>
+        <v>475200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
       </c>
       <c r="D12" s="1">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+        <f>D12*$G$2</f>
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
       <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
       </c>
       <c r="D13" s="1">
-        <v>19.8</v>
+        <v>38.9</v>
       </c>
       <c r="E13" s="2">
         <f>D13*$G$2</f>
-        <v>475200</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+        <v>933600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
       <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>49.9</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2">
         <f>D14*$G$2</f>
-        <v>1197600</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6</v>
+      </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1">
-        <v>35</v>
+        <v>49.9</v>
       </c>
       <c r="E15" s="2">
         <f>D15*$G$2</f>
-        <v>840000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1">
-        <v>38.9</v>
-      </c>
-      <c r="E16" s="2">
-        <f>D16*$G$2</f>
-        <v>933600</v>
+        <v>1197600</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2">
+        <f>SUM(E5:E14)</f>
+        <v>3472800</v>
       </c>
     </row>
   </sheetData>
